--- a/Excel2Json/bin/ep02/ep02.xlsx
+++ b/Excel2Json/bin/ep02/ep02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\Documents\GitHub\Slanted_Structure\Excel2Json\bin\ep02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F64BB8-E4A3-49FA-AF45-5DE65219EB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3CF7FED-FC8E-4253-969A-1BC949B5A940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="0" windowWidth="13860" windowHeight="12555" firstSheet="5" activeTab="8" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="11085" yWindow="0" windowWidth="13860" windowHeight="12555" firstSheet="6" activeTab="9" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="201020" sheetId="20" r:id="rId1"/>
@@ -18,10 +18,11 @@
     <sheet name="201110" sheetId="26" r:id="rId3"/>
     <sheet name="201110_interation" sheetId="27" r:id="rId4"/>
     <sheet name="201110_sit" sheetId="28" r:id="rId5"/>
-    <sheet name="201120" sheetId="29" r:id="rId6"/>
-    <sheet name="201130" sheetId="30" r:id="rId7"/>
-    <sheet name="choice1" sheetId="18" r:id="rId8"/>
-    <sheet name="102010_choice" sheetId="17" r:id="rId9"/>
+    <sheet name="201110_speat" sheetId="31" r:id="rId6"/>
+    <sheet name="201120" sheetId="29" r:id="rId7"/>
+    <sheet name="201130" sheetId="30" r:id="rId8"/>
+    <sheet name="choice1" sheetId="18" r:id="rId9"/>
+    <sheet name="102010_choice" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -217,6 +218,40 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{340FB79C-428D-421B-81E7-9FCF86B7A790}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BB781D65-3707-4D1D-8A7B-9C8A8F0E5F6D}">
       <text>
         <r>
@@ -245,7 +280,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
@@ -280,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="166">
   <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,6 +877,10 @@
   </si>
   <si>
     <t>201130</t>
+  </si>
+  <si>
+    <t>201110_speat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1364,6 +1403,180 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B315F6-7CE4-4655-8EB9-08686130890F}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5A58F5-DB17-4210-ACBF-521534671DF7}">
   <dimension ref="A1:D17"/>
@@ -1806,9 +2019,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A621808-B812-40CD-AAF5-9A8EEFC2E91C}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -1935,270 +2150,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2209,6 +2161,342 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFEB8412-65D6-4165-B40B-CFF950032322}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="63.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC786CA-1FCC-41E7-8EBE-7AA7CB117CFF}">
   <dimension ref="A1:D17"/>
   <sheetViews>
@@ -2331,7 +2619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2B45FD-C5C1-47EC-ACF8-B88135AF9AC4}">
   <dimension ref="A1:D69"/>
   <sheetViews>
@@ -3276,7 +3564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2877912-4535-47DD-A474-90865CA152CE}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -3386,178 +3674,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B315F6-7CE4-4655-8EB9-08686130890F}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>